--- a/Economics/Ljung_Box/Log-Prices/CPI.xlsx
+++ b/Economics/Ljung_Box/Log-Prices/CPI.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.04500685501999563</v>
+        <v>0.05016353531566994</v>
+      </c>
+      <c r="C2">
+        <v>0.8227789541401817</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.09780780843439127</v>
+        <v>0.1875806122414676</v>
+      </c>
+      <c r="C3">
+        <v>0.9104736629790691</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.120289402063245</v>
+        <v>0.5070241295504921</v>
       </c>
       <c r="C4">
-        <v>0.2898561467339522</v>
+        <v>0.9173455532200101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.213786122030878</v>
+        <v>0.7400643548617418</v>
       </c>
       <c r="C5">
-        <v>0.545041652291965</v>
+        <v>0.9462978091071168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.327940694148912</v>
+        <v>0.7409625064253221</v>
       </c>
       <c r="C6">
-        <v>0.7225092167374535</v>
+        <v>0.9806451515552866</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.333200877151677</v>
+        <v>0.7634922520533771</v>
       </c>
       <c r="C7">
-        <v>0.8557178664360265</v>
+        <v>0.993017002765572</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.398942048672507</v>
+        <v>0.7945718791416037</v>
       </c>
       <c r="C8">
-        <v>0.9244289663349795</v>
+        <v>0.9974989551951863</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.432707798369818</v>
+        <v>0.8105977064854887</v>
       </c>
       <c r="C9">
-        <v>0.9638385880204827</v>
+        <v>0.9991852047631938</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.783469526031554</v>
+        <v>1.160899001417578</v>
       </c>
       <c r="C10">
-        <v>0.9708477385621753</v>
+        <v>0.9989682810589378</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.044397511990489</v>
+        <v>1.205175130948105</v>
       </c>
       <c r="C11">
-        <v>0.9796204419268791</v>
+        <v>0.9995977891163118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.254641907336262</v>
+        <v>1.42063414556745</v>
       </c>
       <c r="C12">
-        <v>0.986771313910362</v>
+        <v>0.9997084469202134</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.332362604734101</v>
+        <v>1.966619119073901</v>
       </c>
       <c r="C13">
-        <v>0.9724862064081424</v>
+        <v>0.999455300416205</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.056347755562595</v>
+        <v>2.711226495638783</v>
       </c>
       <c r="C14">
-        <v>0.9682396073314774</v>
+        <v>0.9987912490870154</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4.420848767536108</v>
+        <v>2.842587604702484</v>
       </c>
       <c r="C15">
-        <v>0.9745908931808448</v>
+        <v>0.9993208186082889</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4.562259319860495</v>
+        <v>2.981856216944353</v>
       </c>
       <c r="C16">
-        <v>0.983609847892545</v>
+        <v>0.9996126659184</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17.88516471590278</v>
+        <v>18.20994639495426</v>
       </c>
       <c r="C17">
-        <v>0.212061186274599</v>
+        <v>0.311747101811967</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>18.11165181182887</v>
+        <v>18.46388185481008</v>
       </c>
       <c r="C18">
-        <v>0.2568412038807292</v>
+        <v>0.3601573758554616</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18.11553186365164</v>
+        <v>18.46590427892382</v>
       </c>
       <c r="C19">
-        <v>0.3171752008353929</v>
+        <v>0.4253801873189372</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>18.6107511978787</v>
+        <v>20.17611003181306</v>
       </c>
       <c r="C20">
-        <v>0.3513265463354427</v>
+        <v>0.3840516828460586</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>18.74103598731412</v>
+        <v>20.2330883732973</v>
       </c>
       <c r="C21">
-        <v>0.4079306192045098</v>
+        <v>0.4434364309179672</v>
       </c>
     </row>
   </sheetData>
